--- a/plan de adquisicion de capacitacion/Plan de Adquisición Capacitación_demana-2_V2.2.xlsx
+++ b/plan de adquisicion de capacitacion/Plan de Adquisición Capacitación_demana-2_V2.2.xlsx
@@ -31597,11 +31597,11 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="A1:B2"/>
@@ -31616,11 +31616,11 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:C4"/>
     <mergeCell ref="D3:K3"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="36" orientation="portrait" r:id="rId1"/>
